--- a/documentation/dicionario_de_dados.xlsx
+++ b/documentation/dicionario_de_dados.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1864" uniqueCount="375">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1864" uniqueCount="374">
   <si>
     <t xml:space="preserve">Nome Tabela</t>
   </si>
@@ -429,9 +429,6 @@
   </si>
   <si>
     <t xml:space="preserve">  graduacao</t>
-  </si>
-  <si>
-    <t xml:space="preserve">graduation</t>
   </si>
   <si>
     <t xml:space="preserve">  quadro</t>
@@ -1159,7 +1156,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1201,11 +1198,6 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1312,8 +1304,8 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -1424,15 +1416,15 @@
   </sheetPr>
   <dimension ref="A1:I220"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A151" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H182" activeCellId="0" sqref="H182"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C58" activeCellId="0" sqref="C58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="23.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="24.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="30.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="30.02"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="19.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="17.86"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="8" min="6" style="1" width="11.57"/>
@@ -2949,31 +2941,31 @@
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="1" t="s">
+      <c r="A53" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="B53" s="1" t="s">
+      <c r="B53" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="C53" s="1" t="s">
+      <c r="C53" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="D53" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="E53" s="1" t="s">
+      <c r="D53" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E53" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="F53" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G53" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H53" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I53" s="2" t="s">
+      <c r="F53" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="G53" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H53" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I53" s="9" t="s">
         <v>24</v>
       </c>
     </row>
@@ -2985,7 +2977,7 @@
         <v>132</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>110</v>
@@ -3014,7 +3006,7 @@
         <v>132</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>113</v>
@@ -3043,10 +3035,10 @@
         <v>132</v>
       </c>
       <c r="C56" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D56" s="1" t="s">
         <v>138</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>139</v>
       </c>
       <c r="E56" s="6" t="s">
         <v>47</v>
@@ -3061,7 +3053,7 @@
         <v>16</v>
       </c>
       <c r="I56" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3072,7 +3064,7 @@
         <v>132</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>33</v>
@@ -3101,13 +3093,13 @@
         <v>132</v>
       </c>
       <c r="C58" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D58" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="D58" s="1" t="s">
+      <c r="E58" s="1" t="s">
         <v>143</v>
-      </c>
-      <c r="E58" s="1" t="s">
-        <v>144</v>
       </c>
       <c r="F58" s="1" t="s">
         <v>5</v>
@@ -3130,10 +3122,10 @@
         <v>132</v>
       </c>
       <c r="C59" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="D59" s="3" t="s">
         <v>145</v>
-      </c>
-      <c r="D59" s="3" t="s">
-        <v>146</v>
       </c>
       <c r="E59" s="3" t="s">
         <v>93</v>
@@ -3153,13 +3145,13 @@
     </row>
     <row r="60" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B60" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="B60" s="1" t="s">
+      <c r="C60" s="1" t="s">
         <v>148</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>149</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>12</v>
@@ -3182,13 +3174,13 @@
     </row>
     <row r="61" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B61" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="B61" s="1" t="s">
-        <v>148</v>
-      </c>
       <c r="C61" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>46</v>
@@ -3211,13 +3203,13 @@
     </row>
     <row r="62" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B62" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="B62" s="1" t="s">
-        <v>148</v>
-      </c>
       <c r="C62" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>50</v>
@@ -3235,15 +3227,15 @@
         <v>16</v>
       </c>
       <c r="I62" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B63" s="1" t="s">
         <v>147</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>148</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>116</v>
@@ -3269,10 +3261,10 @@
     </row>
     <row r="64" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="B64" s="3" t="s">
         <v>147</v>
-      </c>
-      <c r="B64" s="3" t="s">
-        <v>148</v>
       </c>
       <c r="C64" s="3" t="s">
         <v>108</v>
@@ -3298,10 +3290,10 @@
     </row>
     <row r="65" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B65" s="1" t="s">
         <v>147</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>148</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>109</v>
@@ -3327,10 +3319,10 @@
     </row>
     <row r="66" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B66" s="1" t="s">
         <v>147</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>148</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>112</v>
@@ -3356,13 +3348,13 @@
     </row>
     <row r="67" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B67" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="B67" s="1" t="s">
-        <v>148</v>
-      </c>
       <c r="C67" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>29</v>
@@ -3380,79 +3372,79 @@
         <v>16</v>
       </c>
       <c r="I67" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B68" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="B68" s="1" t="s">
-        <v>148</v>
-      </c>
       <c r="C68" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="D68" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="D68" s="1" t="s">
+      <c r="E68" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="E68" s="1" t="s">
+      <c r="F68" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H68" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I68" s="2" t="s">
         <v>157</v>
-      </c>
-      <c r="F68" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G68" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H68" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I68" s="2" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B69" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="B69" s="1" t="s">
-        <v>148</v>
-      </c>
       <c r="C69" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D69" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="D69" s="1" t="s">
+      <c r="E69" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="E69" s="1" t="s">
+      <c r="F69" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H69" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I69" s="2" t="s">
         <v>161</v>
-      </c>
-      <c r="F69" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G69" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H69" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I69" s="2" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B70" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="B70" s="1" t="s">
-        <v>148</v>
-      </c>
       <c r="C70" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D70" s="1" t="s">
         <v>163</v>
-      </c>
-      <c r="D70" s="1" t="s">
-        <v>164</v>
       </c>
       <c r="E70" s="1" t="s">
         <v>40</v>
@@ -3467,21 +3459,21 @@
         <v>16</v>
       </c>
       <c r="I70" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B71" s="1" t="s">
         <v>166</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>167</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>82</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E71" s="1" t="s">
         <v>37</v>
@@ -3501,19 +3493,19 @@
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B72" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="B72" s="1" t="s">
-        <v>167</v>
-      </c>
       <c r="C72" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>85</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F72" s="1" t="s">
         <v>5</v>
@@ -3525,18 +3517,18 @@
         <v>16</v>
       </c>
       <c r="I72" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B73" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="B73" s="1" t="s">
-        <v>167</v>
-      </c>
       <c r="C73" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D73" s="1" t="s">
         <v>46</v>
@@ -3554,18 +3546,18 @@
         <v>16</v>
       </c>
       <c r="I73" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B74" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="B74" s="1" t="s">
-        <v>167</v>
-      </c>
       <c r="C74" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>50</v>
@@ -3583,18 +3575,18 @@
         <v>16</v>
       </c>
       <c r="I74" s="7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B75" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="B75" s="1" t="s">
-        <v>167</v>
-      </c>
       <c r="C75" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>117</v>
@@ -3617,20 +3609,20 @@
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B76" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="B76" s="1" t="s">
-        <v>167</v>
-      </c>
       <c r="C76" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="D76" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="D76" s="1" t="s">
+      <c r="E76" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="E76" s="1" t="s">
-        <v>157</v>
-      </c>
       <c r="F76" s="1" t="s">
         <v>5</v>
       </c>
@@ -3641,50 +3633,50 @@
         <v>16</v>
       </c>
       <c r="I76" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B77" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="B77" s="1" t="s">
-        <v>167</v>
-      </c>
       <c r="C77" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D77" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="D77" s="1" t="s">
+      <c r="E77" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="E77" s="1" t="s">
+      <c r="G77" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H77" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I77" s="2" t="s">
         <v>176</v>
-      </c>
-      <c r="G77" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H77" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I77" s="2" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B78" s="1" t="s">
         <v>178</v>
-      </c>
-      <c r="B78" s="1" t="s">
-        <v>179</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>82</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F78" s="1" t="s">
         <v>5</v>
@@ -3701,19 +3693,19 @@
     </row>
     <row r="79" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B79" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="B79" s="1" t="s">
-        <v>179</v>
-      </c>
       <c r="C79" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D79" s="1" t="s">
         <v>85</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F79" s="1" t="s">
         <v>5</v>
@@ -3730,13 +3722,13 @@
     </row>
     <row r="80" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B80" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="B80" s="1" t="s">
-        <v>179</v>
-      </c>
       <c r="C80" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D80" s="1" t="s">
         <v>46</v>
@@ -3754,24 +3746,24 @@
         <v>16</v>
       </c>
       <c r="I80" s="7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B81" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="B81" s="1" t="s">
+      <c r="C81" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="E81" s="1" t="s">
         <v>179</v>
-      </c>
-      <c r="C81" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="D81" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="E81" s="1" t="s">
-        <v>180</v>
       </c>
       <c r="F81" s="1" t="s">
         <v>5</v>
@@ -3788,39 +3780,39 @@
     </row>
     <row r="82" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B82" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="B82" s="1" t="s">
+      <c r="C82" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="E82" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="C82" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="D82" s="1" t="s">
+      <c r="F82" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G82" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H82" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I82" s="2" t="s">
         <v>188</v>
-      </c>
-      <c r="E82" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="F82" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G82" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H82" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I82" s="2" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B83" s="1" t="s">
         <v>178</v>
-      </c>
-      <c r="B83" s="1" t="s">
-        <v>179</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>90</v>
@@ -3829,7 +3821,7 @@
         <v>26</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F83" s="1" t="s">
         <v>14</v>
@@ -3846,10 +3838,10 @@
     </row>
     <row r="84" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B84" s="1" t="s">
         <v>178</v>
-      </c>
-      <c r="B84" s="1" t="s">
-        <v>179</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>17</v>
@@ -3858,7 +3850,7 @@
         <v>18</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F84" s="1" t="s">
         <v>5</v>
@@ -3875,13 +3867,13 @@
     </row>
     <row r="85" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B85" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="B85" s="1" t="s">
-        <v>179</v>
-      </c>
       <c r="C85" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D85" s="1" t="s">
         <v>61</v>
@@ -3899,18 +3891,18 @@
         <v>16</v>
       </c>
       <c r="I85" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B86" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="B86" s="1" t="s">
-        <v>179</v>
-      </c>
       <c r="C86" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D86" s="1" t="s">
         <v>58</v>
@@ -3933,13 +3925,13 @@
     </row>
     <row r="87" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="B87" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="B87" s="3" t="s">
-        <v>179</v>
-      </c>
       <c r="C87" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D87" s="3" t="s">
         <v>22</v>
@@ -3962,19 +3954,19 @@
     </row>
     <row r="88" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B88" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="B88" s="1" t="s">
-        <v>179</v>
-      </c>
       <c r="C88" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D88" s="1" t="s">
         <v>110</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F88" s="1" t="s">
         <v>5</v>
@@ -3991,77 +3983,77 @@
     </row>
     <row r="89" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B89" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="B89" s="1" t="s">
+      <c r="C89" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="E89" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="C89" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="D89" s="8" t="s">
+      <c r="F89" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G89" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H89" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I89" s="2" t="s">
         <v>196</v>
-      </c>
-      <c r="E89" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="F89" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G89" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H89" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I89" s="2" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B90" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="B90" s="1" t="s">
+      <c r="C90" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="E90" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="C90" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="D90" s="1" t="s">
+      <c r="F90" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G90" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H90" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I90" s="2" t="s">
         <v>199</v>
-      </c>
-      <c r="E90" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="F90" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G90" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H90" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I90" s="2" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B91" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="B91" s="1" t="s">
-        <v>179</v>
-      </c>
       <c r="C91" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D91" s="1" t="s">
         <v>92</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F91" s="1" t="s">
         <v>5</v>
@@ -4078,19 +4070,19 @@
     </row>
     <row r="92" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B92" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="B92" s="1" t="s">
-        <v>179</v>
-      </c>
       <c r="C92" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="D92" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="D92" s="1" t="s">
-        <v>203</v>
-      </c>
       <c r="E92" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F92" s="1" t="s">
         <v>5</v>
@@ -4107,77 +4099,77 @@
     </row>
     <row r="93" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B93" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="B93" s="1" t="s">
+      <c r="C93" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="E93" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="C93" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="D93" s="1" t="s">
+      <c r="F93" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G93" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H93" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I93" s="2" t="s">
         <v>205</v>
-      </c>
-      <c r="E93" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="F93" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G93" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H93" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I93" s="2" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B94" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="B94" s="1" t="s">
+      <c r="C94" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="E94" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="C94" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="D94" s="1" t="s">
+      <c r="F94" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G94" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H94" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I94" s="2" t="s">
         <v>208</v>
-      </c>
-      <c r="E94" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="F94" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G94" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H94" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I94" s="2" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B95" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="B95" s="1" t="s">
+      <c r="C95" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="E95" s="1" t="s">
         <v>179</v>
-      </c>
-      <c r="C95" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="D95" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="E95" s="1" t="s">
-        <v>180</v>
       </c>
       <c r="F95" s="1" t="s">
         <v>5</v>
@@ -4194,48 +4186,48 @@
     </row>
     <row r="96" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B96" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="B96" s="1" t="s">
+      <c r="C96" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="E96" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="C96" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="D96" s="1" t="s">
+      <c r="F96" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G96" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H96" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I96" s="2" t="s">
         <v>213</v>
-      </c>
-      <c r="E96" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="F96" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G96" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H96" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I96" s="2" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B97" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="B97" s="1" t="s">
+      <c r="C97" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="E97" s="1" t="s">
         <v>179</v>
-      </c>
-      <c r="C97" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="D97" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="E97" s="1" t="s">
-        <v>180</v>
       </c>
       <c r="F97" s="1" t="s">
         <v>5</v>
@@ -4252,77 +4244,77 @@
     </row>
     <row r="98" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B98" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="B98" s="1" t="s">
+      <c r="C98" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="E98" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="C98" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="D98" s="1" t="s">
+      <c r="F98" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G98" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H98" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I98" s="2" t="s">
         <v>218</v>
-      </c>
-      <c r="E98" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="F98" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G98" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H98" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I98" s="2" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B99" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="B99" s="1" t="s">
+      <c r="C99" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="E99" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="C99" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="D99" s="1" t="s">
+      <c r="F99" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G99" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H99" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I99" s="2" t="s">
         <v>221</v>
-      </c>
-      <c r="E99" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="F99" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G99" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H99" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I99" s="2" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B100" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="B100" s="1" t="s">
-        <v>179</v>
-      </c>
       <c r="C100" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D100" s="1" t="s">
         <v>104</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F100" s="1" t="s">
         <v>5</v>
@@ -4334,24 +4326,24 @@
         <v>16</v>
       </c>
       <c r="I100" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B101" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="B101" s="1" t="s">
+      <c r="C101" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="E101" s="1" t="s">
         <v>179</v>
-      </c>
-      <c r="C101" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="D101" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="E101" s="1" t="s">
-        <v>180</v>
       </c>
       <c r="F101" s="1" t="s">
         <v>5</v>
@@ -4368,19 +4360,19 @@
     </row>
     <row r="102" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B102" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D102" s="1" t="s">
         <v>29</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F102" s="1" t="s">
         <v>14</v>
@@ -4397,16 +4389,16 @@
     </row>
     <row r="103" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B103" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C103" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="D103" s="1" t="s">
         <v>230</v>
-      </c>
-      <c r="D103" s="1" t="s">
-        <v>231</v>
       </c>
       <c r="E103" s="1" t="s">
         <v>23</v>
@@ -4426,19 +4418,19 @@
     </row>
     <row r="104" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B104" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C104" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="D104" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="D104" s="1" t="s">
-        <v>233</v>
-      </c>
       <c r="E104" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F104" s="1" t="s">
         <v>5</v>
@@ -4455,19 +4447,19 @@
     </row>
     <row r="105" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B105" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C105" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="D105" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="D105" s="1" t="s">
+      <c r="E105" s="1" t="s">
         <v>235</v>
-      </c>
-      <c r="E105" s="1" t="s">
-        <v>236</v>
       </c>
       <c r="F105" s="1" t="s">
         <v>5</v>
@@ -4484,48 +4476,48 @@
     </row>
     <row r="106" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B106" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C106" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="D106" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="D106" s="1" t="s">
+      <c r="E106" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="E106" s="1" t="s">
+      <c r="F106" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G106" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H106" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I106" s="2" t="s">
         <v>239</v>
-      </c>
-      <c r="F106" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G106" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H106" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I106" s="2" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B107" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C107" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="D107" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="D107" s="1" t="s">
-        <v>242</v>
-      </c>
       <c r="E107" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F107" s="1" t="s">
         <v>5</v>
@@ -4542,42 +4534,42 @@
     </row>
     <row r="108" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B108" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C108" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="D108" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="D108" s="1" t="s">
+      <c r="E108" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="F108" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G108" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H108" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I108" s="2" t="s">
         <v>244</v>
-      </c>
-      <c r="E108" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="F108" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G108" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H108" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I108" s="2" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B109" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D109" s="1" t="s">
         <v>46</v>
@@ -4595,18 +4587,18 @@
         <v>16</v>
       </c>
       <c r="I109" s="7" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B110" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D110" s="1" t="s">
         <v>50</v>
@@ -4629,19 +4621,19 @@
     </row>
     <row r="111" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B111" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F111" s="1" t="s">
         <v>5</v>
@@ -4658,42 +4650,42 @@
     </row>
     <row r="112" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B112" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C112" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="E112" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="D112" s="1" t="s">
+      <c r="F112" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G112" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H112" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I112" s="2" t="s">
         <v>221</v>
-      </c>
-      <c r="E112" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="F112" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G112" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H112" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I112" s="2" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B113" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D113" s="1" t="s">
         <v>104</v>
@@ -4711,53 +4703,53 @@
         <v>16</v>
       </c>
       <c r="I113" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B114" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C114" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="E114" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="F114" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G114" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H114" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I114" s="2" t="s">
         <v>254</v>
-      </c>
-      <c r="D114" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="E114" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="F114" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G114" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H114" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I114" s="2" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B115" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C115" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="D115" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="D115" s="1" t="s">
-        <v>257</v>
-      </c>
       <c r="E115" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F115" s="1" t="s">
         <v>5</v>
@@ -4774,19 +4766,19 @@
     </row>
     <row r="116" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B116" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F116" s="1" t="s">
         <v>5</v>
@@ -4803,13 +4795,13 @@
     </row>
     <row r="117" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="B117" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="B117" s="1" t="s">
+      <c r="C117" s="1" t="s">
         <v>260</v>
-      </c>
-      <c r="C117" s="1" t="s">
-        <v>261</v>
       </c>
       <c r="D117" s="1" t="s">
         <v>83</v>
@@ -4832,10 +4824,10 @@
     </row>
     <row r="118" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="B118" s="1" t="s">
         <v>259</v>
-      </c>
-      <c r="B118" s="1" t="s">
-        <v>260</v>
       </c>
       <c r="C118" s="1" t="s">
         <v>84</v>
@@ -4844,7 +4836,7 @@
         <v>85</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F118" s="1" t="s">
         <v>5</v>
@@ -4861,39 +4853,39 @@
     </row>
     <row r="119" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="B119" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="B119" s="1" t="s">
-        <v>260</v>
-      </c>
       <c r="C119" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="D119" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="D119" s="1" t="s">
+      <c r="E119" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="F119" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G119" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H119" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I119" s="7" t="s">
         <v>264</v>
-      </c>
-      <c r="E119" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="F119" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G119" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H119" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I119" s="7" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="B120" s="1" t="s">
         <v>259</v>
-      </c>
-      <c r="B120" s="1" t="s">
-        <v>260</v>
       </c>
       <c r="C120" s="1" t="s">
         <v>17</v>
@@ -4902,7 +4894,7 @@
         <v>18</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F120" s="1" t="s">
         <v>5</v>
@@ -4919,10 +4911,10 @@
     </row>
     <row r="121" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="B121" s="1" t="s">
         <v>259</v>
-      </c>
-      <c r="B121" s="1" t="s">
-        <v>260</v>
       </c>
       <c r="C121" s="1" t="s">
         <v>25</v>
@@ -4931,7 +4923,7 @@
         <v>26</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F121" s="1" t="s">
         <v>14</v>
@@ -4948,19 +4940,19 @@
     </row>
     <row r="122" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="B122" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="B122" s="1" t="s">
-        <v>260</v>
-      </c>
       <c r="C122" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D122" s="1" t="s">
         <v>92</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F122" s="1" t="s">
         <v>5</v>
@@ -4977,19 +4969,19 @@
     </row>
     <row r="123" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="B123" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="B123" s="1" t="s">
-        <v>260</v>
-      </c>
       <c r="C123" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D123" s="1" t="s">
         <v>61</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F123" s="1" t="s">
         <v>5</v>
@@ -5001,24 +4993,24 @@
         <v>16</v>
       </c>
       <c r="I123" s="7" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="B124" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="B124" s="1" t="s">
-        <v>260</v>
-      </c>
       <c r="C124" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D124" s="1" t="s">
         <v>124</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F124" s="1" t="s">
         <v>5</v>
@@ -5035,19 +5027,19 @@
     </row>
     <row r="125" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="B125" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="B125" s="1" t="s">
-        <v>260</v>
-      </c>
       <c r="C125" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D125" s="1" t="s">
         <v>58</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F125" s="1" t="s">
         <v>5</v>
@@ -5064,48 +5056,48 @@
     </row>
     <row r="126" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="B126" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="B126" s="1" t="s">
-        <v>260</v>
-      </c>
       <c r="C126" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="D126" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="D126" s="1" t="s">
+      <c r="E126" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="F126" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G126" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H126" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I126" s="7" t="s">
         <v>271</v>
-      </c>
-      <c r="E126" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="F126" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G126" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H126" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I126" s="7" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="B127" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="B127" s="1" t="s">
-        <v>260</v>
-      </c>
       <c r="C127" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D127" s="1" t="s">
         <v>129</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F127" s="1" t="s">
         <v>5</v>
@@ -5117,24 +5109,24 @@
         <v>16</v>
       </c>
       <c r="I127" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="B128" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="B128" s="1" t="s">
-        <v>260</v>
-      </c>
       <c r="C128" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D128" s="1" t="s">
         <v>119</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F128" s="1" t="s">
         <v>5</v>
@@ -5151,19 +5143,19 @@
     </row>
     <row r="129" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="B129" s="3" t="s">
         <v>259</v>
       </c>
-      <c r="B129" s="3" t="s">
-        <v>260</v>
-      </c>
       <c r="C129" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D129" s="3" t="s">
         <v>22</v>
       </c>
       <c r="E129" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F129" s="3" t="s">
         <v>5</v>
@@ -5180,19 +5172,19 @@
     </row>
     <row r="130" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="B130" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="B130" s="1" t="s">
-        <v>260</v>
-      </c>
       <c r="C130" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D130" s="1" t="s">
         <v>110</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F130" s="1" t="s">
         <v>5</v>
@@ -5209,19 +5201,19 @@
     </row>
     <row r="131" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="B131" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="B131" s="1" t="s">
-        <v>260</v>
-      </c>
       <c r="C131" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D131" s="1" t="s">
         <v>113</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F131" s="1" t="s">
         <v>5</v>
@@ -5238,48 +5230,48 @@
     </row>
     <row r="132" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="B132" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="B132" s="1" t="s">
-        <v>260</v>
-      </c>
       <c r="C132" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="D132" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="D132" s="1" t="s">
+      <c r="E132" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="F132" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G132" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H132" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I132" s="7" t="s">
         <v>279</v>
-      </c>
-      <c r="E132" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="F132" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G132" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H132" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I132" s="7" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="B133" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="B133" s="1" t="s">
-        <v>260</v>
-      </c>
       <c r="C133" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F133" s="1" t="s">
         <v>5</v>
@@ -5296,48 +5288,48 @@
     </row>
     <row r="134" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="B134" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="B134" s="1" t="s">
-        <v>260</v>
-      </c>
       <c r="C134" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D134" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="E134" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="F134" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G134" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H134" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I134" s="2" t="s">
         <v>221</v>
-      </c>
-      <c r="E134" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="F134" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G134" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H134" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I134" s="2" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="B135" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="B135" s="1" t="s">
-        <v>260</v>
-      </c>
       <c r="C135" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D135" s="1" t="s">
         <v>104</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F135" s="1" t="s">
         <v>5</v>
@@ -5349,15 +5341,15 @@
         <v>16</v>
       </c>
       <c r="I135" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="B136" s="1" t="s">
         <v>259</v>
-      </c>
-      <c r="B136" s="1" t="s">
-        <v>260</v>
       </c>
       <c r="C136" s="1" t="s">
         <v>32</v>
@@ -5366,7 +5358,7 @@
         <v>33</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F136" s="1" t="s">
         <v>5</v>
@@ -5383,10 +5375,10 @@
     </row>
     <row r="137" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="B137" s="1" t="s">
         <v>259</v>
-      </c>
-      <c r="B137" s="1" t="s">
-        <v>260</v>
       </c>
       <c r="C137" s="1" t="s">
         <v>28</v>
@@ -5395,7 +5387,7 @@
         <v>29</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F137" s="1" t="s">
         <v>5</v>
@@ -5412,19 +5404,19 @@
     </row>
     <row r="138" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="B138" s="3" t="s">
         <v>259</v>
       </c>
-      <c r="B138" s="3" t="s">
-        <v>260</v>
-      </c>
       <c r="C138" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D138" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E138" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F138" s="3" t="s">
         <v>5</v>
@@ -5441,19 +5433,19 @@
     </row>
     <row r="139" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="B139" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="B139" s="1" t="s">
+      <c r="C139" s="1" t="s">
         <v>286</v>
-      </c>
-      <c r="C139" s="1" t="s">
-        <v>287</v>
       </c>
       <c r="D139" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F139" s="1" t="s">
         <v>14</v>
@@ -5470,19 +5462,19 @@
     </row>
     <row r="140" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="B140" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="B140" s="1" t="s">
-        <v>286</v>
-      </c>
       <c r="C140" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D140" s="1" t="s">
         <v>83</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F140" s="1" t="s">
         <v>14</v>
@@ -5499,10 +5491,10 @@
     </row>
     <row r="141" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="B141" s="1" t="s">
         <v>285</v>
-      </c>
-      <c r="B141" s="1" t="s">
-        <v>286</v>
       </c>
       <c r="C141" s="1" t="s">
         <v>84</v>
@@ -5511,7 +5503,7 @@
         <v>85</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F141" s="1" t="s">
         <v>14</v>
@@ -5528,16 +5520,16 @@
     </row>
     <row r="142" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="B142" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="B142" s="1" t="s">
-        <v>286</v>
-      </c>
       <c r="C142" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="D142" s="1" t="s">
         <v>263</v>
-      </c>
-      <c r="D142" s="1" t="s">
-        <v>264</v>
       </c>
       <c r="E142" s="6" t="s">
         <v>47</v>
@@ -5552,15 +5544,15 @@
         <v>16</v>
       </c>
       <c r="I142" s="7" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="B143" s="1" t="s">
         <v>285</v>
-      </c>
-      <c r="B143" s="1" t="s">
-        <v>286</v>
       </c>
       <c r="C143" s="1" t="s">
         <v>17</v>
@@ -5586,10 +5578,10 @@
     </row>
     <row r="144" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="B144" s="1" t="s">
         <v>285</v>
-      </c>
-      <c r="B144" s="1" t="s">
-        <v>286</v>
       </c>
       <c r="C144" s="1" t="s">
         <v>25</v>
@@ -5598,7 +5590,7 @@
         <v>26</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F144" s="1" t="s">
         <v>14</v>
@@ -5615,13 +5607,13 @@
     </row>
     <row r="145" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="B145" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="B145" s="1" t="s">
-        <v>286</v>
-      </c>
       <c r="C145" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D145" s="1" t="s">
         <v>92</v>
@@ -5644,13 +5636,13 @@
     </row>
     <row r="146" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="B146" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="B146" s="1" t="s">
-        <v>286</v>
-      </c>
       <c r="C146" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D146" s="1" t="s">
         <v>61</v>
@@ -5668,24 +5660,24 @@
         <v>16</v>
       </c>
       <c r="I146" s="7" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="B147" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="B147" s="1" t="s">
-        <v>286</v>
-      </c>
       <c r="C147" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D147" s="1" t="s">
         <v>124</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F147" s="1" t="s">
         <v>5</v>
@@ -5702,19 +5694,19 @@
     </row>
     <row r="148" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="B148" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="B148" s="1" t="s">
-        <v>286</v>
-      </c>
       <c r="C148" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D148" s="1" t="s">
         <v>58</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F148" s="1" t="s">
         <v>5</v>
@@ -5731,16 +5723,16 @@
     </row>
     <row r="149" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="B149" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="B149" s="1" t="s">
-        <v>286</v>
-      </c>
       <c r="C149" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E149" s="6" t="s">
         <v>47</v>
@@ -5755,18 +5747,18 @@
         <v>16</v>
       </c>
       <c r="I149" s="7" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="B150" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="B150" s="1" t="s">
-        <v>286</v>
-      </c>
       <c r="C150" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D150" s="1" t="s">
         <v>129</v>
@@ -5784,53 +5776,53 @@
         <v>16</v>
       </c>
       <c r="I150" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="B151" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="B151" s="1" t="s">
-        <v>286</v>
-      </c>
       <c r="C151" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D151" s="1" t="s">
         <v>119</v>
       </c>
       <c r="E151" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="F151" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G151" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H151" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I151" s="2" t="s">
         <v>295</v>
-      </c>
-      <c r="F151" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G151" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H151" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I151" s="2" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="B152" s="3" t="s">
         <v>285</v>
       </c>
-      <c r="B152" s="3" t="s">
-        <v>286</v>
-      </c>
       <c r="C152" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D152" s="3" t="s">
         <v>22</v>
       </c>
       <c r="E152" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F152" s="3" t="s">
         <v>5</v>
@@ -5847,19 +5839,19 @@
     </row>
     <row r="153" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="B153" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="B153" s="1" t="s">
-        <v>286</v>
-      </c>
       <c r="C153" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D153" s="1" t="s">
         <v>110</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F153" s="1" t="s">
         <v>5</v>
@@ -5876,19 +5868,19 @@
     </row>
     <row r="154" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="B154" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="B154" s="1" t="s">
-        <v>286</v>
-      </c>
       <c r="C154" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D154" s="1" t="s">
         <v>113</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F154" s="1" t="s">
         <v>5</v>
@@ -5905,16 +5897,16 @@
     </row>
     <row r="155" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="B155" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="B155" s="1" t="s">
-        <v>286</v>
-      </c>
       <c r="C155" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="D155" s="1" t="s">
         <v>278</v>
-      </c>
-      <c r="D155" s="1" t="s">
-        <v>279</v>
       </c>
       <c r="E155" s="6" t="s">
         <v>47</v>
@@ -5929,21 +5921,21 @@
         <v>16</v>
       </c>
       <c r="I155" s="7" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="B156" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="B156" s="1" t="s">
-        <v>286</v>
-      </c>
       <c r="C156" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E156" s="1" t="s">
         <v>93</v>
@@ -5958,21 +5950,21 @@
         <v>16</v>
       </c>
       <c r="I156" s="7" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="B157" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="B157" s="1" t="s">
-        <v>286</v>
-      </c>
       <c r="C157" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E157" s="1" t="s">
         <v>19</v>
@@ -5987,18 +5979,18 @@
         <v>16</v>
       </c>
       <c r="I157" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="B158" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="B158" s="1" t="s">
-        <v>286</v>
-      </c>
       <c r="C158" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D158" s="1" t="s">
         <v>104</v>
@@ -6016,15 +6008,15 @@
         <v>16</v>
       </c>
       <c r="I158" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="B159" s="1" t="s">
         <v>285</v>
-      </c>
-      <c r="B159" s="1" t="s">
-        <v>286</v>
       </c>
       <c r="C159" s="1" t="s">
         <v>32</v>
@@ -6050,10 +6042,10 @@
     </row>
     <row r="160" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="B160" s="1" t="s">
         <v>285</v>
-      </c>
-      <c r="B160" s="1" t="s">
-        <v>286</v>
       </c>
       <c r="C160" s="1" t="s">
         <v>28</v>
@@ -6062,7 +6054,7 @@
         <v>29</v>
       </c>
       <c r="E160" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F160" s="1" t="s">
         <v>5</v>
@@ -6079,16 +6071,16 @@
     </row>
     <row r="161" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="B161" s="3" t="s">
         <v>285</v>
       </c>
-      <c r="B161" s="3" t="s">
-        <v>286</v>
-      </c>
       <c r="C161" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D161" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E161" s="3" t="s">
         <v>93</v>
@@ -6108,13 +6100,13 @@
     </row>
     <row r="162" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="B162" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="B162" s="1" t="s">
-        <v>286</v>
-      </c>
       <c r="C162" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D162" s="1" t="s">
         <v>46</v>
@@ -6132,18 +6124,18 @@
         <v>16</v>
       </c>
       <c r="I162" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="B163" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="B163" s="1" t="s">
-        <v>286</v>
-      </c>
       <c r="C163" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D163" s="1" t="s">
         <v>50</v>
@@ -6161,15 +6153,15 @@
         <v>16</v>
       </c>
       <c r="I163" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B164" s="1" t="s">
         <v>305</v>
-      </c>
-      <c r="B164" s="1" t="s">
-        <v>306</v>
       </c>
       <c r="C164" s="1" t="s">
         <v>133</v>
@@ -6195,10 +6187,10 @@
     </row>
     <row r="165" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B165" s="1" t="s">
         <v>305</v>
-      </c>
-      <c r="B165" s="1" t="s">
-        <v>306</v>
       </c>
       <c r="C165" s="1" t="s">
         <v>55</v>
@@ -6207,7 +6199,7 @@
         <v>18</v>
       </c>
       <c r="E165" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F165" s="1" t="s">
         <v>5</v>
@@ -6224,19 +6216,19 @@
     </row>
     <row r="166" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="B166" s="3" t="s">
         <v>305</v>
       </c>
-      <c r="B166" s="3" t="s">
+      <c r="C166" s="3" t="s">
         <v>306</v>
-      </c>
-      <c r="C166" s="3" t="s">
-        <v>307</v>
       </c>
       <c r="D166" s="3" t="s">
         <v>22</v>
       </c>
       <c r="E166" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F166" s="3" t="s">
         <v>5</v>
@@ -6253,19 +6245,19 @@
     </row>
     <row r="167" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B167" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="B167" s="1" t="s">
-        <v>306</v>
-      </c>
       <c r="C167" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D167" s="1" t="s">
         <v>110</v>
       </c>
       <c r="E167" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F167" s="1" t="s">
         <v>5</v>
@@ -6282,19 +6274,19 @@
     </row>
     <row r="168" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B168" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="B168" s="1" t="s">
-        <v>306</v>
-      </c>
       <c r="C168" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D168" s="1" t="s">
         <v>113</v>
       </c>
       <c r="E168" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F168" s="1" t="s">
         <v>5</v>
@@ -6311,19 +6303,19 @@
     </row>
     <row r="169" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B169" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="B169" s="1" t="s">
-        <v>306</v>
-      </c>
       <c r="C169" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D169" s="1" t="s">
         <v>46</v>
       </c>
       <c r="E169" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F169" s="1" t="s">
         <v>5</v>
@@ -6335,15 +6327,15 @@
         <v>16</v>
       </c>
       <c r="I169" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B170" s="1" t="s">
         <v>305</v>
-      </c>
-      <c r="B170" s="1" t="s">
-        <v>306</v>
       </c>
       <c r="C170" s="1" t="s">
         <v>11</v>
@@ -6352,7 +6344,7 @@
         <v>12</v>
       </c>
       <c r="E170" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F170" s="1" t="s">
         <v>14</v>
@@ -6369,19 +6361,19 @@
     </row>
     <row r="171" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="B171" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="B171" s="1" t="s">
+      <c r="C171" s="1" t="s">
         <v>311</v>
-      </c>
-      <c r="C171" s="1" t="s">
-        <v>312</v>
       </c>
       <c r="D171" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E171" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F171" s="1" t="s">
         <v>14</v>
@@ -6398,19 +6390,19 @@
     </row>
     <row r="172" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="B172" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="B172" s="1" t="s">
-        <v>311</v>
-      </c>
       <c r="C172" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D172" s="1" t="s">
         <v>83</v>
       </c>
       <c r="E172" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F172" s="1" t="s">
         <v>5</v>
@@ -6422,24 +6414,24 @@
         <v>16</v>
       </c>
       <c r="I172" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="B173" s="3" t="s">
         <v>310</v>
-      </c>
-      <c r="B173" s="3" t="s">
-        <v>311</v>
       </c>
       <c r="C173" s="3" t="s">
         <v>21</v>
       </c>
       <c r="D173" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E173" s="3" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="F173" s="3" t="s">
         <v>5</v>
@@ -6456,19 +6448,19 @@
     </row>
     <row r="174" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="B174" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="B174" s="1" t="s">
-        <v>311</v>
-      </c>
       <c r="C174" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D174" s="1" t="s">
         <v>33</v>
       </c>
       <c r="E174" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F174" s="1" t="s">
         <v>5</v>
@@ -6485,77 +6477,77 @@
     </row>
     <row r="175" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="B175" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="B175" s="1" t="s">
-        <v>311</v>
-      </c>
       <c r="C175" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="D175" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="D175" s="1" t="s">
+      <c r="E175" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="F175" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G175" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H175" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I175" s="2" t="s">
         <v>318</v>
-      </c>
-      <c r="E175" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="F175" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G175" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H175" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I175" s="2" t="s">
-        <v>319</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="B176" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="B176" s="1" t="s">
-        <v>311</v>
-      </c>
       <c r="C176" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="D176" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="D176" s="1" t="s">
+      <c r="E176" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="F176" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G176" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H176" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I176" s="2" t="s">
         <v>321</v>
-      </c>
-      <c r="E176" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="F176" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G176" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H176" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I176" s="2" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="B177" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="B177" s="1" t="s">
-        <v>311</v>
-      </c>
       <c r="C177" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D177" s="1" t="s">
         <v>104</v>
       </c>
       <c r="E177" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F177" s="1" t="s">
         <v>5</v>
@@ -6567,24 +6559,24 @@
         <v>16</v>
       </c>
       <c r="I177" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="B178" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="B178" s="1" t="s">
-        <v>311</v>
-      </c>
       <c r="C178" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="D178" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="D178" s="1" t="s">
-        <v>325</v>
-      </c>
       <c r="E178" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F178" s="1" t="s">
         <v>5</v>
@@ -6601,45 +6593,45 @@
     </row>
     <row r="179" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="B179" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="B179" s="1" t="s">
-        <v>311</v>
-      </c>
       <c r="C179" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="D179" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="D179" s="1" t="s">
+      <c r="E179" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="F179" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G179" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H179" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I179" s="2" t="s">
         <v>327</v>
-      </c>
-      <c r="E179" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="F179" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G179" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H179" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I179" s="2" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="B180" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="B180" s="1" t="s">
-        <v>311</v>
-      </c>
       <c r="C180" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="D180" s="1" t="s">
         <v>329</v>
-      </c>
-      <c r="D180" s="1" t="s">
-        <v>330</v>
       </c>
       <c r="E180" s="1" t="s">
         <v>93</v>
@@ -6659,16 +6651,16 @@
     </row>
     <row r="181" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="B181" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="B181" s="1" t="s">
-        <v>311</v>
-      </c>
       <c r="C181" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="D181" s="1" t="s">
         <v>331</v>
-      </c>
-      <c r="D181" s="1" t="s">
-        <v>332</v>
       </c>
       <c r="E181" s="1" t="s">
         <v>93</v>
@@ -6688,19 +6680,19 @@
     </row>
     <row r="182" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="B182" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="B182" s="1" t="s">
-        <v>311</v>
-      </c>
       <c r="C182" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D182" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E182" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F182" s="1" t="s">
         <v>5</v>
@@ -6712,24 +6704,24 @@
         <v>16</v>
       </c>
       <c r="I182" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="B183" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="B183" s="1" t="s">
-        <v>335</v>
-      </c>
       <c r="C183" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D183" s="1" t="s">
         <v>83</v>
       </c>
       <c r="E183" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F183" s="1" t="s">
         <v>5</v>
@@ -6746,10 +6738,10 @@
     </row>
     <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="B184" s="1" t="s">
         <v>334</v>
-      </c>
-      <c r="B184" s="1" t="s">
-        <v>335</v>
       </c>
       <c r="C184" s="1" t="s">
         <v>84</v>
@@ -6758,7 +6750,7 @@
         <v>46</v>
       </c>
       <c r="E184" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F184" s="1" t="s">
         <v>5</v>
@@ -6775,16 +6767,16 @@
     </row>
     <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="B185" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="B185" s="1" t="s">
-        <v>335</v>
-      </c>
       <c r="C185" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="D185" s="1" t="s">
         <v>263</v>
-      </c>
-      <c r="D185" s="1" t="s">
-        <v>264</v>
       </c>
       <c r="E185" s="6" t="s">
         <v>47</v>
@@ -6799,15 +6791,15 @@
         <v>16</v>
       </c>
       <c r="I185" s="7" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="B186" s="1" t="s">
         <v>334</v>
-      </c>
-      <c r="B186" s="1" t="s">
-        <v>335</v>
       </c>
       <c r="C186" s="1" t="s">
         <v>17</v>
@@ -6833,10 +6825,10 @@
     </row>
     <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="B187" s="1" t="s">
         <v>334</v>
-      </c>
-      <c r="B187" s="1" t="s">
-        <v>335</v>
       </c>
       <c r="C187" s="1" t="s">
         <v>25</v>
@@ -6845,7 +6837,7 @@
         <v>26</v>
       </c>
       <c r="E187" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F187" s="1" t="s">
         <v>5</v>
@@ -6862,13 +6854,13 @@
     </row>
     <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="B188" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="B188" s="1" t="s">
-        <v>335</v>
-      </c>
       <c r="C188" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D188" s="1" t="s">
         <v>92</v>
@@ -6891,13 +6883,13 @@
     </row>
     <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="B189" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="B189" s="1" t="s">
-        <v>335</v>
-      </c>
       <c r="C189" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D189" s="1" t="s">
         <v>61</v>
@@ -6915,24 +6907,24 @@
         <v>16</v>
       </c>
       <c r="I189" s="7" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="B190" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="B190" s="1" t="s">
-        <v>335</v>
-      </c>
       <c r="C190" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D190" s="1" t="s">
         <v>124</v>
       </c>
       <c r="E190" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F190" s="1" t="s">
         <v>5</v>
@@ -6949,19 +6941,19 @@
     </row>
     <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="B191" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="B191" s="1" t="s">
-        <v>335</v>
-      </c>
       <c r="C191" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D191" s="1" t="s">
         <v>58</v>
       </c>
       <c r="E191" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F191" s="1" t="s">
         <v>5</v>
@@ -6978,16 +6970,16 @@
     </row>
     <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="B192" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="B192" s="1" t="s">
-        <v>335</v>
-      </c>
       <c r="C192" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D192" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E192" s="6" t="s">
         <v>47</v>
@@ -7002,18 +6994,18 @@
         <v>16</v>
       </c>
       <c r="I192" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="B193" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="B193" s="1" t="s">
-        <v>335</v>
-      </c>
       <c r="C193" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D193" s="1" t="s">
         <v>129</v>
@@ -7031,24 +7023,24 @@
         <v>16</v>
       </c>
       <c r="I193" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="B194" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="B194" s="1" t="s">
-        <v>335</v>
-      </c>
       <c r="C194" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D194" s="1" t="s">
         <v>119</v>
       </c>
       <c r="E194" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F194" s="1" t="s">
         <v>5</v>
@@ -7060,24 +7052,24 @@
         <v>16</v>
       </c>
       <c r="I194" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="B195" s="8" t="s">
         <v>334</v>
       </c>
-      <c r="B195" s="9" t="s">
-        <v>335</v>
-      </c>
       <c r="C195" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D195" s="3" t="s">
         <v>22</v>
       </c>
       <c r="E195" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F195" s="3" t="s">
         <v>5</v>
@@ -7094,19 +7086,19 @@
     </row>
     <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="B196" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="B196" s="1" t="s">
-        <v>335</v>
-      </c>
       <c r="C196" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D196" s="1" t="s">
         <v>110</v>
       </c>
       <c r="E196" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F196" s="1" t="s">
         <v>5</v>
@@ -7123,19 +7115,19 @@
     </row>
     <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="B197" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="B197" s="1" t="s">
-        <v>335</v>
-      </c>
       <c r="C197" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D197" s="1" t="s">
         <v>113</v>
       </c>
       <c r="E197" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F197" s="1" t="s">
         <v>5</v>
@@ -7152,16 +7144,16 @@
     </row>
     <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="B198" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="B198" s="1" t="s">
-        <v>335</v>
-      </c>
       <c r="C198" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D198" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E198" s="6" t="s">
         <v>47</v>
@@ -7176,21 +7168,21 @@
         <v>16</v>
       </c>
       <c r="I198" s="7" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="B199" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="B199" s="1" t="s">
-        <v>335</v>
-      </c>
       <c r="C199" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D199" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E199" s="1" t="s">
         <v>93</v>
@@ -7210,16 +7202,16 @@
     </row>
     <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="B200" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="B200" s="1" t="s">
-        <v>335</v>
-      </c>
       <c r="C200" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D200" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E200" s="1" t="s">
         <v>19</v>
@@ -7234,18 +7226,18 @@
         <v>16</v>
       </c>
       <c r="I200" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="B201" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="B201" s="1" t="s">
-        <v>335</v>
-      </c>
       <c r="C201" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D201" s="1" t="s">
         <v>104</v>
@@ -7263,15 +7255,15 @@
         <v>16</v>
       </c>
       <c r="I201" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="B202" s="1" t="s">
         <v>334</v>
-      </c>
-      <c r="B202" s="1" t="s">
-        <v>335</v>
       </c>
       <c r="C202" s="1" t="s">
         <v>32</v>
@@ -7297,10 +7289,10 @@
     </row>
     <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="B203" s="1" t="s">
         <v>334</v>
-      </c>
-      <c r="B203" s="1" t="s">
-        <v>335</v>
       </c>
       <c r="C203" s="1" t="s">
         <v>28</v>
@@ -7309,7 +7301,7 @@
         <v>29</v>
       </c>
       <c r="E203" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F203" s="1" t="s">
         <v>5</v>
@@ -7326,16 +7318,16 @@
     </row>
     <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="B204" s="8" t="s">
         <v>334</v>
       </c>
-      <c r="B204" s="9" t="s">
-        <v>335</v>
-      </c>
       <c r="C204" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D204" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E204" s="3" t="s">
         <v>93</v>
@@ -7355,16 +7347,16 @@
     </row>
     <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="B205" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="B205" s="1" t="s">
-        <v>335</v>
-      </c>
       <c r="C205" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="D205" s="1" t="s">
         <v>344</v>
-      </c>
-      <c r="D205" s="1" t="s">
-        <v>345</v>
       </c>
       <c r="E205" s="1" t="s">
         <v>19</v>
@@ -7379,21 +7371,21 @@
         <v>16</v>
       </c>
       <c r="I205" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="B206" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="B206" s="1" t="s">
-        <v>335</v>
-      </c>
       <c r="C206" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="D206" s="1" t="s">
         <v>347</v>
-      </c>
-      <c r="D206" s="1" t="s">
-        <v>348</v>
       </c>
       <c r="E206" s="1" t="s">
         <v>19</v>
@@ -7408,24 +7400,24 @@
         <v>16</v>
       </c>
       <c r="I206" s="2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="B207" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="B207" s="1" t="s">
-        <v>335</v>
-      </c>
       <c r="C207" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="D207" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="D207" s="1" t="s">
+      <c r="E207" s="1" t="s">
         <v>351</v>
-      </c>
-      <c r="E207" s="1" t="s">
-        <v>352</v>
       </c>
       <c r="F207" s="1" t="s">
         <v>5</v>
@@ -7442,19 +7434,19 @@
     </row>
     <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="B208" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="B208" s="1" t="s">
-        <v>335</v>
-      </c>
       <c r="C208" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="D208" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="D208" s="1" t="s">
-        <v>354</v>
-      </c>
       <c r="E208" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F208" s="1" t="s">
         <v>5</v>
@@ -7471,19 +7463,19 @@
     </row>
     <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="B209" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="B209" s="1" t="s">
-        <v>335</v>
-      </c>
       <c r="C209" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="D209" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="D209" s="1" t="s">
-        <v>356</v>
-      </c>
       <c r="E209" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F209" s="1" t="s">
         <v>5</v>
@@ -7500,48 +7492,48 @@
     </row>
     <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="B210" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="B210" s="1" t="s">
-        <v>335</v>
-      </c>
       <c r="C210" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="D210" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="D210" s="1" t="s">
+      <c r="E210" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="E210" s="1" t="s">
+      <c r="F210" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G210" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H210" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I210" s="2" t="s">
         <v>359</v>
-      </c>
-      <c r="F210" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G210" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H210" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I210" s="2" t="s">
-        <v>360</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="B211" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="B211" s="1" t="s">
-        <v>335</v>
-      </c>
       <c r="C211" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="D211" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="D211" s="1" t="s">
+      <c r="E211" s="1" t="s">
         <v>362</v>
-      </c>
-      <c r="E211" s="1" t="s">
-        <v>363</v>
       </c>
       <c r="F211" s="1" t="s">
         <v>5</v>
@@ -7558,10 +7550,10 @@
     </row>
     <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="B212" s="1" t="s">
         <v>334</v>
-      </c>
-      <c r="B212" s="1" t="s">
-        <v>335</v>
       </c>
       <c r="C212" s="1" t="s">
         <v>11</v>
@@ -7587,16 +7579,16 @@
     </row>
     <row r="213" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="B213" s="1" t="s">
         <v>364</v>
-      </c>
-      <c r="B213" s="1" t="s">
-        <v>365</v>
       </c>
       <c r="C213" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D213" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E213" s="1" t="s">
         <v>54</v>
@@ -7616,16 +7608,16 @@
     </row>
     <row r="214" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="B214" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="B214" s="1" t="s">
-        <v>365</v>
-      </c>
       <c r="C214" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="D214" s="1" t="s">
         <v>367</v>
-      </c>
-      <c r="D214" s="1" t="s">
-        <v>368</v>
       </c>
       <c r="E214" s="1" t="s">
         <v>13</v>
@@ -7645,33 +7637,33 @@
     </row>
     <row r="216" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="B217" s="1" t="s">
         <v>370</v>
-      </c>
-      <c r="B217" s="1" t="s">
-        <v>371</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="10"/>
       <c r="B218" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="11"/>
       <c r="B219" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="12"/>
       <c r="B220" s="1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
   </sheetData>
